--- a/Avtoslesar/evidence.xlsx
+++ b/Avtoslesar/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10752" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10752" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
   <si>
     <t>TxHash</t>
   </si>
@@ -115,24 +115,6 @@
     <t>FC060C99B0C59F13C3953316D4B1569526280D2DD6EB929967336128B9E359A1</t>
   </si>
   <si>
-    <t>nft1</t>
-  </si>
-  <si>
-    <t>nft2</t>
-  </si>
-  <si>
-    <t>nft3</t>
-  </si>
-  <si>
-    <t>032B1F4D26EFA6E761A36B29EF73DE14C3C7DB2742C279D66A43512AF9AC0A30</t>
-  </si>
-  <si>
-    <t>D81BF924A724F2CBB12BB71C077DAD02EADD2EE2B7FF4E98B255F75109AF1F38</t>
-  </si>
-  <si>
-    <t>215FE21C65E57A91DA438D9D8AE38151D529C30D6EF2B1B40C341ABB2D69CF94</t>
-  </si>
-  <si>
     <t>nft7</t>
   </si>
   <si>
@@ -283,25 +265,37 @@
     <t>D406994DEC234F461260E8B51644E83472FA026ADD980D18EC2884AB7624D941</t>
   </si>
   <si>
-    <t>EA00397504DE48A4DF6C5F7FBBE9EABA97790E1E54D39E7D95E35B1F3237E63A</t>
-  </si>
-  <si>
     <t>stars1ksm4an2lrw3xqqkdnxwsk9af559c3lfe2rl5mz6xq6gxytf6gmzsrdqcr6</t>
   </si>
   <si>
-    <t>FAB9C93AA976FC841E27F0DCA8FB6908A80F19D6A2767F19C01F906A8D7B3F42</t>
-  </si>
-  <si>
     <t>ibc/6FCCAC269F5AD3D13F6744E80543A04137DDC03122ADBD6BC88CB815412B5AFF</t>
   </si>
   <si>
-    <t>5E31F1522B0AD49910B631F6535D0A3C09708F27ACC0D66103818A1618D0F970</t>
-  </si>
-  <si>
-    <t>62D6F5028390BF257362518CC434038666C8DCDE0CFD676FDE92EF04161B9055</t>
-  </si>
-  <si>
     <t>BB3DE0E940099E0D6FCA3680A2FFDF0E857F28D0E635B9AF7483B9269BCB3B1A</t>
+  </si>
+  <si>
+    <t>F7DD2F5AA68EA170893DB5B856A3A49A288D6A184B4789D2335A9DA0EC321085</t>
+  </si>
+  <si>
+    <t>nftA1</t>
+  </si>
+  <si>
+    <t>nftA2</t>
+  </si>
+  <si>
+    <t>43CB37EA76EAC7A7C7E22F096810434173C755773989BDAA767B46EF81AF046F</t>
+  </si>
+  <si>
+    <t>71F2AEAAF7B968DA4F80DADA0CF4D7A7EA0DD416C4EF7A3A5DFC65866F0C9369</t>
+  </si>
+  <si>
+    <t>DA99E08A6B88AEE33180C5E3C16913F519CAF81F7FD3464359769F40E4C39806</t>
+  </si>
+  <si>
+    <t>CAB5EFCF0089FF7A9B550DB977646CB29C749CCD6D0B94D2A947A81F3683499B</t>
+  </si>
+  <si>
+    <t>A365B6E2BA22A518D9A3EAD9EFA9124FF616FA0F9867E9BD689B0A3D9A692C9F</t>
   </si>
 </sst>
 </file>
@@ -876,10 +870,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +911,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -958,10 +952,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -999,10 +993,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1040,23 +1034,23 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -1064,10 +1058,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1076,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1102,15 +1096,15 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -1118,15 +1112,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -1164,15 +1158,15 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -1180,7 +1174,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -1188,7 +1182,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1226,10 +1220,80 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1237,7 +1301,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1309,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1253,23 +1317,15 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1277,7 +1333,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,10 +1352,109 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1307,7 +1462,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1323,114 +1478,31 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1460,15 +1532,15 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1476,7 +1548,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1484,7 +1556,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1492,7 +1564,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1500,84 +1572,6 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1730,7 +1724,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1752,36 +1746,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1796,7 +1784,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,16 +1810,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1846,8 +1834,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1876,10 +1864,10 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1924,16 +1912,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1976,13 +1964,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -2020,10 +2008,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2058,10 +2046,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
